--- a/REQUERIMIENTOSv2.xlsx
+++ b/REQUERIMIENTOSv2.xlsx
@@ -119,18 +119,12 @@
     <t>El sistema le mostrara los gastos en color rojo y los ingresos en color verde</t>
   </si>
   <si>
-    <t xml:space="preserve">El usuario desea fijar una meta de ahorro con el valor de la meta, fecha de inicio y fecha final </t>
-  </si>
-  <si>
     <t>El usuario desea tener un apartado para ingresar un gasto con la tarjeta bancaria,si se realiza periodicamente o no y si es asi poner en que dia del mes es el gasto de dinero, el detalle y el valor</t>
   </si>
   <si>
     <t>El usuario desea tener un filtro para decidir de que tarjeta desea ver el ahorro o sin ninguna tarjeta</t>
   </si>
   <si>
-    <t>El sistema le mostrara al usuario teniendo en cuenta sus gastos el alcance de ahorro por dias, meses, semanas o al año con un monto de plata que podria llegar a ahorrar graficamente, detallando los ingresos y gastos fijos y el dinero que le queda libre</t>
-  </si>
-  <si>
     <t>El usuario desea tener una opcion para ir a editar un meta de ahorro</t>
   </si>
   <si>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t xml:space="preserve">El usuario desea ver porcentajes de los consumos de los ingresos y gastos en el mes Y informacion del perfil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario desea fijar una meta de ahorro con el detalle,el valor de la meta, fecha de inicio y fecha final </t>
+  </si>
+  <si>
+    <t>El sistema le mostrara al usuario teniendo en cuenta sus gastos e ingresos el alcance de ahorro por dias, meses, semanas o al año con un monto de plata que podria llegar a ahorrar graficamente, detallando los ingresos y gastos fijos y el dinero que le queda libre</t>
   </si>
 </sst>
 </file>
@@ -957,7 +957,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
@@ -1072,10 +1072,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
@@ -1089,10 +1089,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>19</v>
@@ -1106,10 +1106,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1123,10 +1123,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>19</v>
@@ -1140,10 +1140,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>19</v>
@@ -1160,7 +1160,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1174,10 +1174,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>19</v>
@@ -1194,7 +1194,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1208,10 +1208,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>19</v>
@@ -1225,10 +1225,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>19</v>
@@ -1245,7 +1245,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -1262,7 +1262,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>19</v>
@@ -1293,10 +1293,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>19</v>
@@ -1310,10 +1310,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>19</v>
@@ -1322,15 +1322,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -1344,10 +1344,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>19</v>
@@ -1361,10 +1361,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -1378,10 +1378,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>19</v>
@@ -1395,10 +1395,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -1412,10 +1412,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>19</v>
@@ -1429,10 +1429,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>19</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>15</v>
@@ -1626,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -1660,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
@@ -1677,7 +1677,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>3</v>
@@ -1694,7 +1694,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>3</v>
@@ -1711,7 +1711,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -1728,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>3</v>
@@ -1745,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>3</v>
@@ -1762,7 +1762,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>3</v>
@@ -1779,7 +1779,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>3</v>
@@ -1796,7 +1796,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>3</v>
@@ -1813,7 +1813,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>3</v>
@@ -1830,7 +1830,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>3</v>

--- a/REQUERIMIENTOSv2.xlsx
+++ b/REQUERIMIENTOSv2.xlsx
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/REQUERIMIENTOSv2.xlsx
+++ b/REQUERIMIENTOSv2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FE7623-0C01-4D46-B3E8-A9F60C0350CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-21720" yWindow="1185" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUERIMIENTOS" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
   <si>
     <t>MODULOS</t>
   </si>
@@ -213,12 +214,24 @@
   </si>
   <si>
     <t>El sistema le mostrara al usuario teniendo en cuenta sus gastos e ingresos el alcance de ahorro por dias, meses, semanas o al año con un monto de plata que podria llegar a ahorrar graficamente, detallando los ingresos y gastos fijos y el dinero que le queda libre</t>
+  </si>
+  <si>
+    <t>Eliminar gasto de tarjeta</t>
+  </si>
+  <si>
+    <t>Eliminar ingreso de tarjeta</t>
+  </si>
+  <si>
+    <t>El usuario desea tener una opcion para eliminar un gasto periodico mensual</t>
+  </si>
+  <si>
+    <t>El usuario desea tener una opcion para eliminar un ingreso periodico mensual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -298,16 +311,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -634,58 +644,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B2:F29" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="B2:F29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla5" displayName="Tabla5" ref="B2:F31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="B2:F31" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" name="REQUERIMIENTOS" dataDxfId="20"/>
-    <tableColumn id="3" name="CASOS DE USO" dataDxfId="19"/>
-    <tableColumn id="4" name="FUNCIONAL" dataDxfId="18"/>
-    <tableColumn id="5" name="ESTADO" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="REQUERIMIENTOS" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CASOS DE USO" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FUNCIONAL" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ESTADO" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:B5" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Incorrecto">
-  <autoFilter ref="B2:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="B2:B5" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Incorrecto">
+  <autoFilter ref="B2:B5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MODULOS" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MODULOS" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ESTADOS" displayName="ESTADOS" ref="D2:D5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="D2:D5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="ESTADOS" displayName="ESTADOS" ref="D2:D5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="D2:D5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="ESTADOS" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ESTADOS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="DECISIONES" displayName="DECISIONES" ref="F2:F4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="F2:F4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DECISIONES" displayName="DECISIONES" ref="F2:F4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="F2:F4" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="DECISIONES" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DECISIONES" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CASOS_DE_USO" displayName="CASOS_DE_USO" ref="C2:G36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="C2:G36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="CASOS_DE_USO" displayName="CASOS_DE_USO" ref="C2:G36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="C2:G36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="NOMBRE" dataDxfId="3"/>
-    <tableColumn id="3" name="MODULO" dataDxfId="2"/>
-    <tableColumn id="4" name="DIAGRAMA" dataDxfId="1"/>
-    <tableColumn id="5" name="PLANTILLA" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="NOMBRE" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="MODULO" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="DIAGRAMA" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="PLANTILLA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -953,11 +963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1000,16 +1010,16 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1020,13 +1030,13 @@
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1034,10 +1044,10 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1054,13 +1064,13 @@
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1068,16 +1078,16 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1088,13 +1098,13 @@
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1102,10 +1112,10 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1122,13 +1132,13 @@
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1136,16 +1146,16 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1156,7 +1166,7 @@
       <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1169,202 +1179,202 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+    <row r="14" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <v>16</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <v>20</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
-        <v>22</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="57" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>47</v>
+      <c r="C25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -1373,32 +1383,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
+    <row r="26" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
         <v>24</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="C26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="57" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>48</v>
+      <c r="C27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -1408,16 +1418,16 @@
       </c>
     </row>
     <row r="28" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="C28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -1428,25 +1438,59 @@
       <c r="B29" s="2">
         <v>27</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>28</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1457,23 +1501,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>MODULOS!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F29</xm:sqref>
+          <xm:sqref>F3:F31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>MODULOS!$F$3:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E29</xm:sqref>
+          <xm:sqref>E3:E31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'CASOS DE USO'!$D$3:$D$36</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D29</xm:sqref>
+          <xm:sqref>D3:D31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1482,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1501,10 +1545,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1515,7 +1559,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1526,7 +1570,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1537,7 +1581,7 @@
       <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1552,11 +1596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1846,6 +1890,12 @@
       <c r="C18" s="1">
         <v>22</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1856,6 +1906,12 @@
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -2064,13 +2120,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>MODULOS!$D$3:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>F3:G36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>MODULOS!$B$3:$B$5</xm:f>
           </x14:formula1>
